--- a/Clients.xlsx
+++ b/Clients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA628552-B481-40B2-B734-A1B6BC19B317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2DF7EA-1BDF-451E-B4BD-E3B11F57AF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tom" sheetId="2" r:id="rId1"/>
@@ -68,16 +68,16 @@
     <t>Ipad</t>
   </si>
   <si>
-    <t>Far Cry 6</t>
-  </si>
-  <si>
-    <t>Oculus</t>
-  </si>
-  <si>
     <t>Sunglasses</t>
   </si>
   <si>
-    <t>Champion Hoodie</t>
+    <t>Videogame</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Hoodie</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33950D6-9F18-40A4-9F88-825786F5E9A1}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -539,7 +539,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A11ECE-970B-4F25-B190-4F41A9B74AF7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,7 +580,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>7</v>

--- a/Clients.xlsx
+++ b/Clients.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2DF7EA-1BDF-451E-B4BD-E3B11F57AF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D52D993-D702-485F-88D6-D6F058820215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tom" sheetId="2" r:id="rId1"/>
-    <sheet name="Bill" sheetId="3" r:id="rId2"/>
-    <sheet name="Steph" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Tom" sheetId="2" r:id="rId2"/>
+    <sheet name="Bill" sheetId="3" r:id="rId3"/>
+    <sheet name="Steph" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
   <si>
     <t>Products:</t>
   </si>
@@ -78,6 +79,21 @@
   </si>
   <si>
     <t>Hoodie</t>
+  </si>
+  <si>
+    <t>Clients:</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Steph</t>
+  </si>
+  <si>
+    <t>Sungalsses</t>
   </si>
 </sst>
 </file>
@@ -428,6 +444,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B140516-27BD-4ABC-B0D4-15635EEDF29E}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33950D6-9F18-40A4-9F88-825786F5E9A1}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -490,7 +664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EA479C-511C-47FE-B6D5-75B8B4D2E2CB}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -553,11 +727,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A11ECE-970B-4F25-B190-4F41A9B74AF7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
